--- a/emerging technologies/artificial intelligence/AI Risk Assessment.xlsx
+++ b/emerging technologies/artificial intelligence/AI Risk Assessment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanabanyin.Tandoh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanabanyin.Tandoh\OneDrive - Guaranty Trust Bank PLC\Documents\WORK\IT AUDIT\upload\emerging technologies\artificial intelligence\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Prioritization " sheetId="5" r:id="rId1"/>
@@ -669,12 +669,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1074,338 +1074,338 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1467,101 +1467,101 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1616,541 +1616,541 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <f>D3*F3</f>
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="2" t="str">
         <f>IF(AND(G3&gt;=1, G3&lt;=3), "Low",
    IF(AND(G3&gt;=4, G3&lt;=6), "Medium",
    IF(AND(G3&gt;=7, G3&lt;=12), "High",
    "Extreme")))</f>
         <v>Medium</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f t="shared" ref="G5:G29" si="0">D5*F5</f>
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="2" t="str">
         <f>IF(AND(G5&gt;=1, G5&lt;=3), "Low",
    IF(AND(G5&gt;=4, G5&lt;=6), "Medium",
    IF(AND(G5&gt;=7, G5&lt;=12), "High",
    "Extreme")))</f>
         <v>High</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="str">
+      <c r="H6" s="2" t="str">
         <f t="shared" ref="H6:H29" si="1">IF(AND(G6&gt;=1, G6&lt;=3), "Low",
    IF(AND(G6&gt;=4, G6&lt;=6), "Medium",
    IF(AND(G6&gt;=7, G6&lt;=12), "High",
    "Extreme")))</f>
         <v>High</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H7" s="3" t="str">
+      <c r="H7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Medium</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H8" s="3" t="str">
+      <c r="H8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Low</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H9" s="3" t="str">
+      <c r="H9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Low</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H10" s="3" t="str">
+      <c r="H10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Low</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H12" s="3" t="str">
+      <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Medium</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="str">
+      <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="str">
+      <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H17" s="3" t="str">
+      <c r="H17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>5</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>4</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H19" s="3" t="str">
+      <c r="H19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -2158,295 +2158,295 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H21" s="3" t="str">
+      <c r="H21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>5</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H22" s="3" t="str">
+      <c r="H22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>4</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H23" s="3" t="str">
+      <c r="H23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Extreme</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>4</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H24" s="3" t="str">
+      <c r="H24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>3</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H25" s="3" t="str">
+      <c r="H25" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Medium</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>3</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H26" s="3" t="str">
+      <c r="H26" s="2" t="str">
         <f t="shared" si="1"/>
         <v>Medium</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H27" s="3" t="str">
+      <c r="H27" s="2" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>4</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>3</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H28" s="3" t="str">
+      <c r="H28" s="2" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="3"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="str">
+      <c r="H29" s="2" t="str">
         <f t="shared" si="1"/>
         <v>High</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2465,7 +2465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2480,8 +2480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
